--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -43,33 +43,6 @@
     <t>url to login</t>
   </si>
   <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>TenantID</t>
-  </si>
-  <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>swagger_url</t>
-  </si>
-  <si>
-    <t>QC6YJ4LJafTnlrbR</t>
-  </si>
-  <si>
-    <t>WO_Media_Type</t>
-  </si>
-  <si>
-    <t>MAST</t>
-  </si>
-  <si>
-    <t>WO_Media_Format</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
     <t>WO_File</t>
   </si>
   <si>
@@ -116,9 +89,6 @@
   </si>
   <si>
     <t>Turner@2021</t>
-  </si>
-  <si>
-    <t>https://turnertrackerqa.clearhub.tv/PFT.Clear.TurnerTrackerLongform1/api-docs/index.html?url=/PFT.Clear.TurnerTrackerLongform1/api-docs/swagger.json#!/WorkOrder/PFT_CLEAR_TURNERTRACKERLongForm_LongFormService_CreateWorkorder</t>
   </si>
   <si>
     <t>segment_number</t>
@@ -172,53 +142,59 @@
     <t>sowmya.jagadish@primefocus.com;vamsikrishna.g@primefocus.com;aditya.kulshreshtha@primefocus.com;mansurabegum.tatwanagi@primefocus.com;manohar.r@primefocus.com;madhweshdas.cv@primefocus.com;bharath.doddagoudar@primefocus.com</t>
   </si>
   <si>
-    <t>Automation Report - QC Status</t>
+    <t>C:\common\ReportForPerformQC.xlsx</t>
+  </si>
+  <si>
+    <t>C:\common\Report\ReportForPerformQC.xlsx</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait time in seconds </t>
+  </si>
+  <si>
+    <t>configmessage</t>
+  </si>
+  <si>
+    <t>Config read successfully!!!</t>
+  </si>
+  <si>
+    <t>message value</t>
+  </si>
+  <si>
+    <t>Final_Reportpath</t>
+  </si>
+  <si>
+    <t>C:\common\Report</t>
+  </si>
+  <si>
+    <t>File_Rename</t>
+  </si>
+  <si>
+    <t>ReportForPerformQC_</t>
+  </si>
+  <si>
+    <t>RenameFile</t>
+  </si>
+  <si>
+    <t>Longform latam:Automation Report - QC Status</t>
   </si>
   <si>
     <t>147871-134</t>
   </si>
   <si>
-    <t>C:\common\ReportForPerformQC.xlsx</t>
-  </si>
-  <si>
-    <t>Final_Report</t>
-  </si>
-  <si>
-    <t>C:\common\Report\ReportForPerformQC.xlsx</t>
-  </si>
-  <si>
-    <t>Final_Reportname</t>
-  </si>
-  <si>
-    <t>ReportForPerformQC</t>
-  </si>
-  <si>
-    <t>Final_path</t>
-  </si>
-  <si>
-    <t>C:\common\Report\</t>
-  </si>
-  <si>
-    <t>Delay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait time in seconds </t>
-  </si>
-  <si>
-    <t>configmessage</t>
-  </si>
-  <si>
-    <t>Config read successfully!!!</t>
-  </si>
-  <si>
-    <t>message value</t>
+    <t>To_1</t>
+  </si>
+  <si>
+    <t>sowmya.jagadish@primefocus.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -252,6 +228,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -360,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -368,21 +358,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -390,22 +367,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -414,6 +382,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -695,16 +688,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z986"/>
+  <dimension ref="A1:Z980"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="126.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="126.140625" style="28" customWidth="1"/>
     <col min="3" max="3" width="68.5703125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -713,7 +706,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -743,570 +736,504 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>6</v>
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>3</v>
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11">
+        <v>147871</v>
+      </c>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="11">
+        <v>134</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9">
-        <v>6000</v>
-      </c>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9">
-        <v>68600</v>
-      </c>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="B21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="18"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="16">
-        <v>147871</v>
-      </c>
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="9">
-        <v>134</v>
-      </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="9">
-        <v>1</v>
-      </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="B26" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="18"/>
+      <c r="B27" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="18"/>
-    </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="18"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="18"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="A31" s="7"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="A32" s="10"/>
+      <c r="B32" s="27"/>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="18"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="18"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="18"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="18"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="18"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="18"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="18"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="18"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="18"/>
-    </row>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="18"/>
-    </row>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="18"/>
-    </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="18"/>
-    </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="18"/>
-    </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="18"/>
-    </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="18"/>
-    </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2191,12 +2118,6 @@
     <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2207,7 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2219,37 +2140,37 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
